--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a1-Mag.xlsx
@@ -531,7 +531,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05157966666666667</v>
+        <v>0.05157966666666666</v>
       </c>
       <c r="H2">
         <v>0.154739</v>
@@ -549,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q2">
-        <v>0.004665759100888889</v>
+        <v>0.0002759512166666666</v>
       </c>
       <c r="R2">
-        <v>0.041991831908</v>
+        <v>0.002483560949999999</v>
       </c>
       <c r="S2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="T2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05157966666666667</v>
+        <v>0.05157966666666666</v>
       </c>
       <c r="H3">
         <v>0.154739</v>
@@ -617,22 +617,22 @@
         <v>4.452321</v>
       </c>
       <c r="O3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q3">
-        <v>0.07654974435766668</v>
+        <v>0.07654974435766665</v>
       </c>
       <c r="R3">
-        <v>0.6889476992190001</v>
+        <v>0.6889476992189999</v>
       </c>
       <c r="S3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="T3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
     </row>
   </sheetData>
